--- a/face-degree_cont.xlsx
+++ b/face-degree_cont.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowHeight="16920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287">
   <si>
     <t>degree</t>
   </si>
@@ -881,24 +881,386 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -906,18 +1268,316 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1200,20 +1860,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:C228"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1224,7 +1889,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
@@ -1235,7 +1900,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B3">
@@ -1246,7 +1911,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4">
@@ -1257,7 +1922,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B5">
@@ -1268,7 +1933,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B6">
@@ -1279,7 +1944,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B7">
@@ -1290,7 +1955,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B8">
@@ -1301,7 +1966,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B9">
@@ -1312,7 +1977,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B10">
@@ -1323,7 +1988,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B11">
@@ -1334,7 +1999,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B12">
@@ -1345,7 +2010,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B13">
@@ -1356,7 +2021,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B14">
@@ -1367,7 +2032,7 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" t="s">
+      <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B15">
@@ -1378,7 +2043,7 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B16">
@@ -1389,7 +2054,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B17">
@@ -1400,7 +2065,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B18">
@@ -1411,7 +2076,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B19">
@@ -1422,7 +2087,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" t="s">
+      <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B20">
@@ -1433,7 +2098,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" t="s">
+      <c r="A21" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B21">
@@ -1444,7 +2109,7 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" t="s">
+      <c r="A22" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B22">
@@ -1455,7 +2120,7 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" t="s">
+      <c r="A23" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B23">
@@ -1466,7 +2131,7 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" t="s">
+      <c r="A24" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B24">
@@ -1477,7 +2142,7 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" t="s">
+      <c r="A25" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B25">
@@ -1488,7 +2153,7 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" t="s">
+      <c r="A26" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B26">
@@ -1499,7 +2164,7 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" t="s">
+      <c r="A27" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B27">
@@ -1510,7 +2175,7 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" t="s">
+      <c r="A28" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B28">
@@ -1521,7 +2186,7 @@
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" t="s">
+      <c r="A29" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B29">
@@ -1532,7 +2197,7 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" t="s">
+      <c r="A30" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B30">
@@ -1543,7 +2208,7 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" t="s">
+      <c r="A31" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B31">
@@ -1554,7 +2219,7 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" t="s">
+      <c r="A32" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B32">
@@ -1565,7 +2230,7 @@
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" t="s">
+      <c r="A33" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B33">
@@ -1576,7 +2241,7 @@
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" t="s">
+      <c r="A34" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B34">
@@ -1587,7 +2252,7 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" t="s">
+      <c r="A35" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B35">
@@ -1598,7 +2263,7 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" t="s">
+      <c r="A36" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B36">
@@ -1609,7 +2274,7 @@
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" t="s">
+      <c r="A37" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B37">
@@ -1620,7 +2285,7 @@
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" t="s">
+      <c r="A38" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B38">
@@ -1631,7 +2296,7 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" t="s">
+      <c r="A39" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B39">
@@ -1642,7 +2307,7 @@
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" t="s">
+      <c r="A40" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B40">
@@ -1653,7 +2318,7 @@
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" t="s">
+      <c r="A41" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B41">
@@ -1664,7 +2329,7 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" t="s">
+      <c r="A42" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B42">
@@ -1675,7 +2340,7 @@
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" t="s">
+      <c r="A43" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B43">
@@ -1686,7 +2351,7 @@
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" t="s">
+      <c r="A44" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B44">
@@ -1697,7 +2362,7 @@
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" t="s">
+      <c r="A45" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B45">
@@ -1708,7 +2373,7 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" t="s">
+      <c r="A46" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B46">
@@ -1719,7 +2384,7 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" t="s">
+      <c r="A47" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B47">
@@ -1730,7 +2395,7 @@
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" t="s">
+      <c r="A48" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B48">
@@ -1741,7 +2406,7 @@
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" t="s">
+      <c r="A49" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B49">
@@ -1752,7 +2417,7 @@
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" t="s">
+      <c r="A50" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B50">
@@ -1763,7 +2428,7 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" t="s">
+      <c r="A51" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B51">
@@ -1774,7 +2439,7 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" t="s">
+      <c r="A52" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B52">
@@ -1785,7 +2450,7 @@
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" t="s">
+      <c r="A53" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B53">
@@ -1796,7 +2461,7 @@
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" t="s">
+      <c r="A54" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B54">
@@ -1807,7 +2472,7 @@
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" t="s">
+      <c r="A55" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B55">
@@ -1818,7 +2483,7 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" t="s">
+      <c r="A56" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B56">
@@ -1829,7 +2494,7 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" t="s">
+      <c r="A57" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B57">
@@ -1840,7 +2505,7 @@
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" t="s">
+      <c r="A58" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B58">
@@ -1851,7 +2516,7 @@
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" t="s">
+      <c r="A59" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B59">
@@ -1862,7 +2527,7 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" t="s">
+      <c r="A60" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B60">
@@ -1873,7 +2538,7 @@
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" t="s">
+      <c r="A61" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B61">
@@ -1884,7 +2549,7 @@
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" t="s">
+      <c r="A62" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B62">
@@ -1895,7 +2560,7 @@
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" t="s">
+      <c r="A63" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B63">
@@ -1906,7 +2571,7 @@
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" t="s">
+      <c r="A64" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B64">
@@ -1917,7 +2582,7 @@
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" t="s">
+      <c r="A65" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B65">
@@ -1928,7 +2593,7 @@
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" t="s">
+      <c r="A66" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B66">
@@ -1939,7 +2604,7 @@
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" t="s">
+      <c r="A67" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B67">
@@ -1950,7 +2615,7 @@
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" t="s">
+      <c r="A68" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B68">
@@ -1961,7 +2626,7 @@
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" t="s">
+      <c r="A69" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B69">
@@ -1972,7 +2637,7 @@
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" t="s">
+      <c r="A70" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B70">
@@ -1983,7 +2648,7 @@
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" t="s">
+      <c r="A71" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B71">
@@ -1994,7 +2659,7 @@
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" t="s">
+      <c r="A72" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B72">
@@ -2005,7 +2670,7 @@
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" t="s">
+      <c r="A73" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B73">
@@ -2016,7 +2681,7 @@
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" t="s">
+      <c r="A74" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B74">
@@ -2027,7 +2692,7 @@
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" t="s">
+      <c r="A75" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B75">
@@ -2038,7 +2703,7 @@
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" t="s">
+      <c r="A76" s="4" t="s">
         <v>83</v>
       </c>
       <c r="B76">
@@ -2049,7 +2714,7 @@
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" t="s">
+      <c r="A77" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B77">
@@ -2060,7 +2725,7 @@
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" t="s">
+      <c r="A78" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B78">
@@ -2071,7 +2736,7 @@
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" t="s">
+      <c r="A79" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B79">
@@ -2082,7 +2747,7 @@
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" t="s">
+      <c r="A80" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B80">
@@ -2093,7 +2758,7 @@
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" t="s">
+      <c r="A81" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B81">
@@ -2104,7 +2769,7 @@
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" t="s">
+      <c r="A82" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B82">
@@ -2115,7 +2780,7 @@
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" t="s">
+      <c r="A83" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B83">
@@ -2126,7 +2791,7 @@
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" t="s">
+      <c r="A84" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B84">
@@ -2137,7 +2802,7 @@
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" t="s">
+      <c r="A85" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B85">
@@ -2148,7 +2813,7 @@
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" t="s">
+      <c r="A86" s="4" t="s">
         <v>93</v>
       </c>
       <c r="B86">
@@ -2159,7 +2824,7 @@
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" t="s">
+      <c r="A87" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B87">
@@ -2170,7 +2835,7 @@
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" t="s">
+      <c r="A88" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B88">
@@ -2181,7 +2846,7 @@
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" t="s">
+      <c r="A89" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B89">
@@ -2192,7 +2857,7 @@
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" t="s">
+      <c r="A90" s="4" t="s">
         <v>98</v>
       </c>
       <c r="B90">
@@ -2203,7 +2868,7 @@
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" t="s">
+      <c r="A91" s="2" t="s">
         <v>99</v>
       </c>
       <c r="B91">
@@ -2214,7 +2879,7 @@
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" t="s">
+      <c r="A92" s="2" t="s">
         <v>100</v>
       </c>
       <c r="B92">
@@ -2225,7 +2890,7 @@
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" t="s">
+      <c r="A93" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B93">
@@ -2236,7 +2901,7 @@
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" t="s">
+      <c r="A94" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B94">
@@ -2247,7 +2912,7 @@
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" t="s">
+      <c r="A95" s="2" t="s">
         <v>103</v>
       </c>
       <c r="B95">
@@ -2258,7 +2923,7 @@
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" t="s">
+      <c r="A96" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B96">
@@ -2269,7 +2934,7 @@
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" t="s">
+      <c r="A97" s="2" t="s">
         <v>105</v>
       </c>
       <c r="B97">
@@ -2280,7 +2945,7 @@
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" t="s">
+      <c r="A98" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B98">
@@ -2291,7 +2956,7 @@
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" t="s">
+      <c r="A99" s="2" t="s">
         <v>107</v>
       </c>
       <c r="B99">
@@ -2302,7 +2967,7 @@
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" t="s">
+      <c r="A100" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B100">
@@ -2313,7 +2978,7 @@
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" t="s">
+      <c r="A101" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B101">
@@ -2324,7 +2989,7 @@
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" t="s">
+      <c r="A102" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B102">
@@ -2335,7 +3000,7 @@
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" t="s">
+      <c r="A103" s="2" t="s">
         <v>111</v>
       </c>
       <c r="B103">
@@ -2346,7 +3011,7 @@
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" t="s">
+      <c r="A104" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B104">
@@ -2357,7 +3022,7 @@
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" t="s">
+      <c r="A105" s="2" t="s">
         <v>113</v>
       </c>
       <c r="B105">
@@ -2368,7 +3033,7 @@
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" t="s">
+      <c r="A106" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B106">
@@ -2379,7 +3044,7 @@
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" t="s">
+      <c r="A107" s="2" t="s">
         <v>116</v>
       </c>
       <c r="B107">
@@ -2390,7 +3055,7 @@
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" t="s">
+      <c r="A108" s="2" t="s">
         <v>118</v>
       </c>
       <c r="B108">
@@ -2401,7 +3066,7 @@
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" t="s">
+      <c r="A109" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B109">
@@ -2412,7 +3077,7 @@
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" t="s">
+      <c r="A110" s="2" t="s">
         <v>121</v>
       </c>
       <c r="B110">
@@ -2423,7 +3088,7 @@
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" t="s">
+      <c r="A111" s="2" t="s">
         <v>122</v>
       </c>
       <c r="B111">
@@ -2434,7 +3099,7 @@
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" t="s">
+      <c r="A112" s="2" t="s">
         <v>123</v>
       </c>
       <c r="B112">
@@ -2445,7 +3110,7 @@
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" t="s">
+      <c r="A113" s="2" t="s">
         <v>124</v>
       </c>
       <c r="B113">
@@ -2456,7 +3121,7 @@
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" t="s">
+      <c r="A114" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B114">
@@ -2467,7 +3132,7 @@
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" t="s">
+      <c r="A115" s="2" t="s">
         <v>127</v>
       </c>
       <c r="B115">
@@ -2478,7 +3143,7 @@
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" t="s">
+      <c r="A116" s="2" t="s">
         <v>128</v>
       </c>
       <c r="B116">
@@ -2489,7 +3154,7 @@
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" t="s">
+      <c r="A117" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B117">
@@ -2500,7 +3165,7 @@
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" t="s">
+      <c r="A118" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B118">
@@ -2511,7 +3176,7 @@
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" t="s">
+      <c r="A119" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B119">
@@ -2522,7 +3187,7 @@
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" t="s">
+      <c r="A120" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B120">
@@ -2533,7 +3198,7 @@
       </c>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" t="s">
+      <c r="A121" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B121">
@@ -2544,7 +3209,7 @@
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" t="s">
+      <c r="A122" s="2" t="s">
         <v>135</v>
       </c>
       <c r="B122">
@@ -2555,7 +3220,7 @@
       </c>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" t="s">
+      <c r="A123" s="2" t="s">
         <v>136</v>
       </c>
       <c r="B123">
@@ -2566,7 +3231,7 @@
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" t="s">
+      <c r="A124" s="2" t="s">
         <v>137</v>
       </c>
       <c r="B124">
@@ -2577,7 +3242,7 @@
       </c>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" t="s">
+      <c r="A125" s="2" t="s">
         <v>138</v>
       </c>
       <c r="B125">
@@ -2588,7 +3253,7 @@
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" t="s">
+      <c r="A126" s="2" t="s">
         <v>139</v>
       </c>
       <c r="B126">
@@ -2599,7 +3264,7 @@
       </c>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" t="s">
+      <c r="A127" s="2" t="s">
         <v>140</v>
       </c>
       <c r="B127">
@@ -2610,7 +3275,7 @@
       </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" t="s">
+      <c r="A128" s="2" t="s">
         <v>141</v>
       </c>
       <c r="B128">
@@ -2621,7 +3286,7 @@
       </c>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" t="s">
+      <c r="A129" s="2" t="s">
         <v>142</v>
       </c>
       <c r="B129">
@@ -2632,7 +3297,7 @@
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" t="s">
+      <c r="A130" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B130">
@@ -2643,7 +3308,7 @@
       </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" t="s">
+      <c r="A131" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B131">
@@ -2654,7 +3319,7 @@
       </c>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" t="s">
+      <c r="A132" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B132">
@@ -2665,7 +3330,7 @@
       </c>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" t="s">
+      <c r="A133" s="2" t="s">
         <v>146</v>
       </c>
       <c r="B133">
@@ -2676,7 +3341,7 @@
       </c>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" t="s">
+      <c r="A134" s="2" t="s">
         <v>147</v>
       </c>
       <c r="B134">
@@ -2687,7 +3352,7 @@
       </c>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" t="s">
+      <c r="A135" s="2" t="s">
         <v>148</v>
       </c>
       <c r="B135">
@@ -2698,7 +3363,7 @@
       </c>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" t="s">
+      <c r="A136" s="2" t="s">
         <v>149</v>
       </c>
       <c r="B136">
@@ -2709,7 +3374,7 @@
       </c>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" t="s">
+      <c r="A137" s="2" t="s">
         <v>150</v>
       </c>
       <c r="B137">
@@ -2720,7 +3385,7 @@
       </c>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" t="s">
+      <c r="A138" s="2" t="s">
         <v>151</v>
       </c>
       <c r="B138">
@@ -2731,7 +3396,7 @@
       </c>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" t="s">
+      <c r="A139" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B139">
@@ -2742,7 +3407,7 @@
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" t="s">
+      <c r="A140" s="2" t="s">
         <v>153</v>
       </c>
       <c r="B140">
@@ -2753,7 +3418,7 @@
       </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" t="s">
+      <c r="A141" s="2" t="s">
         <v>154</v>
       </c>
       <c r="B141">
@@ -2764,7 +3429,7 @@
       </c>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" t="s">
+      <c r="A142" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B142">
@@ -2775,7 +3440,7 @@
       </c>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143" t="s">
+      <c r="A143" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B143">
@@ -2786,7 +3451,7 @@
       </c>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144" t="s">
+      <c r="A144" s="2" t="s">
         <v>157</v>
       </c>
       <c r="B144">
@@ -2797,7 +3462,7 @@
       </c>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" t="s">
+      <c r="A145" s="2" t="s">
         <v>158</v>
       </c>
       <c r="B145">
@@ -2808,7 +3473,7 @@
       </c>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" t="s">
+      <c r="A146" s="2" t="s">
         <v>159</v>
       </c>
       <c r="B146">
@@ -2819,7 +3484,7 @@
       </c>
     </row>
     <row r="147" spans="1:3">
-      <c r="A147" t="s">
+      <c r="A147" s="2" t="s">
         <v>161</v>
       </c>
       <c r="B147">
@@ -2830,7 +3495,7 @@
       </c>
     </row>
     <row r="148" spans="1:3">
-      <c r="A148" t="s">
+      <c r="A148" s="2" t="s">
         <v>162</v>
       </c>
       <c r="B148">
@@ -2841,7 +3506,7 @@
       </c>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149" t="s">
+      <c r="A149" s="2" t="s">
         <v>163</v>
       </c>
       <c r="B149">
@@ -2852,7 +3517,7 @@
       </c>
     </row>
     <row r="150" spans="1:3">
-      <c r="A150" t="s">
+      <c r="A150" s="2" t="s">
         <v>164</v>
       </c>
       <c r="B150">
@@ -2863,7 +3528,7 @@
       </c>
     </row>
     <row r="151" spans="1:3">
-      <c r="A151" t="s">
+      <c r="A151" s="2" t="s">
         <v>166</v>
       </c>
       <c r="B151">
@@ -2874,7 +3539,7 @@
       </c>
     </row>
     <row r="152" spans="1:3">
-      <c r="A152" t="s">
+      <c r="A152" s="2" t="s">
         <v>167</v>
       </c>
       <c r="B152">
@@ -2885,7 +3550,7 @@
       </c>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153" t="s">
+      <c r="A153" s="2" t="s">
         <v>168</v>
       </c>
       <c r="B153">
@@ -2896,7 +3561,7 @@
       </c>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154" t="s">
+      <c r="A154" s="2" t="s">
         <v>170</v>
       </c>
       <c r="B154">
@@ -2907,7 +3572,7 @@
       </c>
     </row>
     <row r="155" spans="1:3">
-      <c r="A155" t="s">
+      <c r="A155" s="2" t="s">
         <v>171</v>
       </c>
       <c r="B155">
@@ -2918,7 +3583,7 @@
       </c>
     </row>
     <row r="156" spans="1:3">
-      <c r="A156" t="s">
+      <c r="A156" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B156">
@@ -2929,7 +3594,7 @@
       </c>
     </row>
     <row r="157" spans="1:3">
-      <c r="A157" t="s">
+      <c r="A157" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B157">
@@ -2940,7 +3605,7 @@
       </c>
     </row>
     <row r="158" spans="1:3">
-      <c r="A158" t="s">
+      <c r="A158" s="2" t="s">
         <v>174</v>
       </c>
       <c r="B158">
@@ -2951,7 +3616,7 @@
       </c>
     </row>
     <row r="159" spans="1:3">
-      <c r="A159" t="s">
+      <c r="A159" s="2" t="s">
         <v>176</v>
       </c>
       <c r="B159">
@@ -2962,7 +3627,7 @@
       </c>
     </row>
     <row r="160" spans="1:3">
-      <c r="A160" t="s">
+      <c r="A160" s="2" t="s">
         <v>177</v>
       </c>
       <c r="B160">
@@ -2973,7 +3638,7 @@
       </c>
     </row>
     <row r="161" spans="1:3">
-      <c r="A161" t="s">
+      <c r="A161" s="2" t="s">
         <v>179</v>
       </c>
       <c r="B161">
@@ -2984,7 +3649,7 @@
       </c>
     </row>
     <row r="162" spans="1:3">
-      <c r="A162" t="s">
+      <c r="A162" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B162">
@@ -2995,7 +3660,7 @@
       </c>
     </row>
     <row r="163" spans="1:3">
-      <c r="A163" t="s">
+      <c r="A163" s="2" t="s">
         <v>182</v>
       </c>
       <c r="B163">
@@ -3006,7 +3671,7 @@
       </c>
     </row>
     <row r="164" spans="1:3">
-      <c r="A164" t="s">
+      <c r="A164" s="2" t="s">
         <v>184</v>
       </c>
       <c r="B164">
@@ -3017,7 +3682,7 @@
       </c>
     </row>
     <row r="165" spans="1:3">
-      <c r="A165" t="s">
+      <c r="A165" s="2" t="s">
         <v>186</v>
       </c>
       <c r="B165">
@@ -3028,7 +3693,7 @@
       </c>
     </row>
     <row r="166" spans="1:3">
-      <c r="A166" t="s">
+      <c r="A166" s="2" t="s">
         <v>187</v>
       </c>
       <c r="B166">
@@ -3039,7 +3704,7 @@
       </c>
     </row>
     <row r="167" spans="1:3">
-      <c r="A167" t="s">
+      <c r="A167" s="2" t="s">
         <v>189</v>
       </c>
       <c r="B167">
@@ -3050,7 +3715,7 @@
       </c>
     </row>
     <row r="168" spans="1:3">
-      <c r="A168" t="s">
+      <c r="A168" s="2" t="s">
         <v>190</v>
       </c>
       <c r="B168">
@@ -3061,7 +3726,7 @@
       </c>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169" t="s">
+      <c r="A169" s="2" t="s">
         <v>191</v>
       </c>
       <c r="B169">
@@ -3072,7 +3737,7 @@
       </c>
     </row>
     <row r="170" spans="1:3">
-      <c r="A170" t="s">
+      <c r="A170" s="2" t="s">
         <v>192</v>
       </c>
       <c r="B170">
@@ -3083,7 +3748,7 @@
       </c>
     </row>
     <row r="171" spans="1:3">
-      <c r="A171" t="s">
+      <c r="A171" s="2" t="s">
         <v>193</v>
       </c>
       <c r="B171">
@@ -3094,7 +3759,7 @@
       </c>
     </row>
     <row r="172" spans="1:3">
-      <c r="A172" t="s">
+      <c r="A172" s="2" t="s">
         <v>194</v>
       </c>
       <c r="B172">
@@ -3105,7 +3770,7 @@
       </c>
     </row>
     <row r="173" spans="1:3">
-      <c r="A173" t="s">
+      <c r="A173" s="2" t="s">
         <v>195</v>
       </c>
       <c r="B173">
@@ -3116,7 +3781,7 @@
       </c>
     </row>
     <row r="174" spans="1:3">
-      <c r="A174" t="s">
+      <c r="A174" s="2" t="s">
         <v>196</v>
       </c>
       <c r="B174">
@@ -3127,7 +3792,7 @@
       </c>
     </row>
     <row r="175" spans="1:3">
-      <c r="A175" t="s">
+      <c r="A175" s="2" t="s">
         <v>197</v>
       </c>
       <c r="B175">
@@ -3138,7 +3803,7 @@
       </c>
     </row>
     <row r="176" spans="1:3">
-      <c r="A176" t="s">
+      <c r="A176" s="2" t="s">
         <v>198</v>
       </c>
       <c r="B176">
@@ -3149,7 +3814,7 @@
       </c>
     </row>
     <row r="177" spans="1:3">
-      <c r="A177" t="s">
+      <c r="A177" s="2" t="s">
         <v>199</v>
       </c>
       <c r="B177">
@@ -3160,7 +3825,7 @@
       </c>
     </row>
     <row r="178" spans="1:3">
-      <c r="A178" t="s">
+      <c r="A178" s="2" t="s">
         <v>201</v>
       </c>
       <c r="B178">
@@ -3171,7 +3836,7 @@
       </c>
     </row>
     <row r="179" spans="1:3">
-      <c r="A179" t="s">
+      <c r="A179" s="2" t="s">
         <v>202</v>
       </c>
       <c r="B179">
@@ -3182,7 +3847,7 @@
       </c>
     </row>
     <row r="180" spans="1:3">
-      <c r="A180" t="s">
+      <c r="A180" s="2" t="s">
         <v>204</v>
       </c>
       <c r="B180">
@@ -3193,7 +3858,7 @@
       </c>
     </row>
     <row r="181" spans="1:3">
-      <c r="A181" t="s">
+      <c r="A181" s="2" t="s">
         <v>206</v>
       </c>
       <c r="B181">
@@ -3204,7 +3869,7 @@
       </c>
     </row>
     <row r="182" spans="1:3">
-      <c r="A182" t="s">
+      <c r="A182" s="2" t="s">
         <v>208</v>
       </c>
       <c r="B182">
@@ -3215,7 +3880,7 @@
       </c>
     </row>
     <row r="183" spans="1:3">
-      <c r="A183" t="s">
+      <c r="A183" s="2" t="s">
         <v>209</v>
       </c>
       <c r="B183">
@@ -3226,7 +3891,7 @@
       </c>
     </row>
     <row r="184" spans="1:3">
-      <c r="A184" t="s">
+      <c r="A184" s="2" t="s">
         <v>210</v>
       </c>
       <c r="B184">
@@ -3237,7 +3902,7 @@
       </c>
     </row>
     <row r="185" spans="1:3">
-      <c r="A185" t="s">
+      <c r="A185" s="2" t="s">
         <v>211</v>
       </c>
       <c r="B185">
@@ -3248,7 +3913,7 @@
       </c>
     </row>
     <row r="186" spans="1:3">
-      <c r="A186" t="s">
+      <c r="A186" s="2" t="s">
         <v>213</v>
       </c>
       <c r="B186">
@@ -3259,7 +3924,7 @@
       </c>
     </row>
     <row r="187" spans="1:3">
-      <c r="A187" t="s">
+      <c r="A187" s="2" t="s">
         <v>215</v>
       </c>
       <c r="B187">
@@ -3270,7 +3935,7 @@
       </c>
     </row>
     <row r="188" spans="1:3">
-      <c r="A188" t="s">
+      <c r="A188" s="2" t="s">
         <v>216</v>
       </c>
       <c r="B188">
@@ -3281,7 +3946,7 @@
       </c>
     </row>
     <row r="189" spans="1:3">
-      <c r="A189" t="s">
+      <c r="A189" s="2" t="s">
         <v>217</v>
       </c>
       <c r="B189">
@@ -3292,7 +3957,7 @@
       </c>
     </row>
     <row r="190" spans="1:3">
-      <c r="A190" t="s">
+      <c r="A190" s="2" t="s">
         <v>219</v>
       </c>
       <c r="B190">
@@ -3303,7 +3968,7 @@
       </c>
     </row>
     <row r="191" spans="1:3">
-      <c r="A191" t="s">
+      <c r="A191" s="2" t="s">
         <v>220</v>
       </c>
       <c r="B191">
@@ -3314,7 +3979,7 @@
       </c>
     </row>
     <row r="192" spans="1:3">
-      <c r="A192" t="s">
+      <c r="A192" s="2" t="s">
         <v>222</v>
       </c>
       <c r="B192">
@@ -3325,7 +3990,7 @@
       </c>
     </row>
     <row r="193" spans="1:3">
-      <c r="A193" t="s">
+      <c r="A193" s="2" t="s">
         <v>224</v>
       </c>
       <c r="B193">
@@ -3336,7 +4001,7 @@
       </c>
     </row>
     <row r="194" spans="1:3">
-      <c r="A194" t="s">
+      <c r="A194" s="2" t="s">
         <v>225</v>
       </c>
       <c r="B194">
@@ -3347,7 +4012,7 @@
       </c>
     </row>
     <row r="195" spans="1:3">
-      <c r="A195" t="s">
+      <c r="A195" s="2" t="s">
         <v>227</v>
       </c>
       <c r="B195">
@@ -3358,7 +4023,7 @@
       </c>
     </row>
     <row r="196" spans="1:3">
-      <c r="A196" t="s">
+      <c r="A196" s="2" t="s">
         <v>228</v>
       </c>
       <c r="B196">
@@ -3369,7 +4034,7 @@
       </c>
     </row>
     <row r="197" spans="1:3">
-      <c r="A197" t="s">
+      <c r="A197" s="2" t="s">
         <v>230</v>
       </c>
       <c r="B197">
@@ -3380,7 +4045,7 @@
       </c>
     </row>
     <row r="198" spans="1:3">
-      <c r="A198" t="s">
+      <c r="A198" s="2" t="s">
         <v>231</v>
       </c>
       <c r="B198">
@@ -3391,7 +4056,7 @@
       </c>
     </row>
     <row r="199" spans="1:3">
-      <c r="A199" t="s">
+      <c r="A199" s="2" t="s">
         <v>233</v>
       </c>
       <c r="B199">
@@ -3402,7 +4067,7 @@
       </c>
     </row>
     <row r="200" spans="1:3">
-      <c r="A200" t="s">
+      <c r="A200" s="2" t="s">
         <v>235</v>
       </c>
       <c r="B200">
@@ -3413,7 +4078,7 @@
       </c>
     </row>
     <row r="201" spans="1:3">
-      <c r="A201" t="s">
+      <c r="A201" s="2" t="s">
         <v>236</v>
       </c>
       <c r="B201">
@@ -3424,7 +4089,7 @@
       </c>
     </row>
     <row r="202" spans="1:3">
-      <c r="A202" t="s">
+      <c r="A202" s="2" t="s">
         <v>238</v>
       </c>
       <c r="B202">
@@ -3435,7 +4100,7 @@
       </c>
     </row>
     <row r="203" spans="1:3">
-      <c r="A203" t="s">
+      <c r="A203" s="2" t="s">
         <v>240</v>
       </c>
       <c r="B203">
@@ -3446,7 +4111,7 @@
       </c>
     </row>
     <row r="204" spans="1:3">
-      <c r="A204" t="s">
+      <c r="A204" s="2" t="s">
         <v>242</v>
       </c>
       <c r="B204">
@@ -3457,7 +4122,7 @@
       </c>
     </row>
     <row r="205" spans="1:3">
-      <c r="A205" t="s">
+      <c r="A205" s="2" t="s">
         <v>244</v>
       </c>
       <c r="B205">
@@ -3468,7 +4133,7 @@
       </c>
     </row>
     <row r="206" spans="1:3">
-      <c r="A206" t="s">
+      <c r="A206" s="2" t="s">
         <v>246</v>
       </c>
       <c r="B206">
@@ -3479,7 +4144,7 @@
       </c>
     </row>
     <row r="207" spans="1:3">
-      <c r="A207" t="s">
+      <c r="A207" s="2" t="s">
         <v>248</v>
       </c>
       <c r="B207">
@@ -3490,7 +4155,7 @@
       </c>
     </row>
     <row r="208" spans="1:3">
-      <c r="A208" t="s">
+      <c r="A208" s="2" t="s">
         <v>250</v>
       </c>
       <c r="B208">
@@ -3501,7 +4166,7 @@
       </c>
     </row>
     <row r="209" spans="1:3">
-      <c r="A209" t="s">
+      <c r="A209" s="2" t="s">
         <v>252</v>
       </c>
       <c r="B209">
@@ -3512,7 +4177,7 @@
       </c>
     </row>
     <row r="210" spans="1:3">
-      <c r="A210" t="s">
+      <c r="A210" s="2" t="s">
         <v>253</v>
       </c>
       <c r="B210">
@@ -3523,7 +4188,7 @@
       </c>
     </row>
     <row r="211" spans="1:3">
-      <c r="A211" t="s">
+      <c r="A211" s="2" t="s">
         <v>255</v>
       </c>
       <c r="B211">
@@ -3534,7 +4199,7 @@
       </c>
     </row>
     <row r="212" spans="1:3">
-      <c r="A212" t="s">
+      <c r="A212" s="2" t="s">
         <v>257</v>
       </c>
       <c r="B212">
@@ -3545,7 +4210,7 @@
       </c>
     </row>
     <row r="213" spans="1:3">
-      <c r="A213" t="s">
+      <c r="A213" s="2" t="s">
         <v>259</v>
       </c>
       <c r="B213">
@@ -3556,7 +4221,7 @@
       </c>
     </row>
     <row r="214" spans="1:3">
-      <c r="A214" t="s">
+      <c r="A214" s="2" t="s">
         <v>261</v>
       </c>
       <c r="B214">
@@ -3567,7 +4232,7 @@
       </c>
     </row>
     <row r="215" spans="1:3">
-      <c r="A215" t="s">
+      <c r="A215" s="2" t="s">
         <v>263</v>
       </c>
       <c r="B215">
@@ -3578,7 +4243,7 @@
       </c>
     </row>
     <row r="216" spans="1:3">
-      <c r="A216" t="s">
+      <c r="A216" s="2" t="s">
         <v>265</v>
       </c>
       <c r="B216">
@@ -3589,7 +4254,7 @@
       </c>
     </row>
     <row r="217" spans="1:3">
-      <c r="A217" t="s">
+      <c r="A217" s="2" t="s">
         <v>267</v>
       </c>
       <c r="B217">
@@ -3600,7 +4265,7 @@
       </c>
     </row>
     <row r="218" spans="1:3">
-      <c r="A218" t="s">
+      <c r="A218" s="2" t="s">
         <v>268</v>
       </c>
       <c r="B218">
@@ -3611,7 +4276,7 @@
       </c>
     </row>
     <row r="219" spans="1:3">
-      <c r="A219" t="s">
+      <c r="A219" s="2" t="s">
         <v>270</v>
       </c>
       <c r="B219">
@@ -3622,7 +4287,7 @@
       </c>
     </row>
     <row r="220" spans="1:3">
-      <c r="A220" t="s">
+      <c r="A220" s="2" t="s">
         <v>272</v>
       </c>
       <c r="B220">
@@ -3633,7 +4298,7 @@
       </c>
     </row>
     <row r="221" spans="1:3">
-      <c r="A221" t="s">
+      <c r="A221" s="2" t="s">
         <v>274</v>
       </c>
       <c r="B221">
@@ -3644,7 +4309,7 @@
       </c>
     </row>
     <row r="222" spans="1:3">
-      <c r="A222" t="s">
+      <c r="A222" s="2" t="s">
         <v>276</v>
       </c>
       <c r="B222">
@@ -3655,7 +4320,7 @@
       </c>
     </row>
     <row r="223" spans="1:3">
-      <c r="A223" t="s">
+      <c r="A223" s="2" t="s">
         <v>278</v>
       </c>
       <c r="B223">
@@ -3666,7 +4331,7 @@
       </c>
     </row>
     <row r="224" spans="1:3">
-      <c r="A224" t="s">
+      <c r="A224" s="2" t="s">
         <v>279</v>
       </c>
       <c r="B224">
@@ -3677,7 +4342,7 @@
       </c>
     </row>
     <row r="225" spans="1:3">
-      <c r="A225" t="s">
+      <c r="A225" s="2" t="s">
         <v>281</v>
       </c>
       <c r="B225">
@@ -3688,7 +4353,7 @@
       </c>
     </row>
     <row r="226" spans="1:3">
-      <c r="A226" t="s">
+      <c r="A226" s="2" t="s">
         <v>283</v>
       </c>
       <c r="B226">
@@ -3699,7 +4364,7 @@
       </c>
     </row>
     <row r="227" spans="1:3">
-      <c r="A227" t="s">
+      <c r="A227" s="2" t="s">
         <v>284</v>
       </c>
       <c r="B227">
@@ -3710,7 +4375,7 @@
       </c>
     </row>
     <row r="228" spans="1:3">
-      <c r="A228" t="s">
+      <c r="A228" s="2" t="s">
         <v>285</v>
       </c>
       <c r="B228">
@@ -3721,6 +4386,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>